--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_2217.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_2217.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2217</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Christopher Henry Gayle</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1583</t>
+          <t>1583</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1584</t>
+          <t>1584</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1585</t>
+          <t>1585</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1587</t>
+          <t>1587</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1588</t>
+          <t>1588</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1602</t>
+          <t>1602</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1604</t>
+          <t>1604</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1675</t>
+          <t>1675</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -920,7 +985,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1676</t>
+          <t>1676</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +1037,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1678</t>
+          <t>1678</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1024,7 +1089,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1680</t>
+          <t>1680</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1076,7 +1141,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1681</t>
+          <t>1681</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1128,7 +1193,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1682</t>
+          <t>1682</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1180,7 +1245,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1683</t>
+          <t>1683</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1232,7 +1297,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1700</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1272,7 +1337,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>09/07/2000</t>
@@ -1280,7 +1344,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1702</t>
+          <t>1702</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1332,7 +1396,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1703</t>
+          <t>1703</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1384,7 +1448,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1705</t>
+          <t>1705</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1436,7 +1500,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1706</t>
+          <t>1706</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1488,7 +1552,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1708</t>
+          <t>1708</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1540,7 +1604,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1663</t>
+          <t>1663</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1592,7 +1656,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1596</t>
+          <t>1596</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1644,7 +1708,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1582</t>
+          <t>1582</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1696,7 +1760,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1581</t>
+          <t>1581</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1748,7 +1812,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1580</t>
+          <t>1580</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1800,7 +1864,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1487</t>
+          <t>1487</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1852,7 +1916,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1813</t>
+          <t>1813</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1904,7 +1968,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1816</t>
+          <t>1816</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1956,7 +2020,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1817</t>
+          <t>1817</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2008,7 +2072,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1818</t>
+          <t>1818</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2060,7 +2124,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1819</t>
+          <t>1819</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2112,7 +2176,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1830</t>
+          <t>1830</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2164,7 +2228,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1831</t>
+          <t>1831</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2216,7 +2280,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1832</t>
+          <t>1832</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2268,7 +2332,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1862</t>
+          <t>1862</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2320,7 +2384,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1863</t>
+          <t>1863</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2372,7 +2436,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1865</t>
+          <t>1865</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2424,7 +2488,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1866</t>
+          <t>1866</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2476,7 +2540,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1867</t>
+          <t>1867</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2528,7 +2592,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1892</t>
+          <t>1892</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2580,7 +2644,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1893</t>
+          <t>1893</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2632,7 +2696,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1895</t>
+          <t>1895</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2684,7 +2748,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1923</t>
+          <t>1923</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2736,7 +2800,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1924</t>
+          <t>1924</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2788,7 +2852,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1925</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2828,7 +2892,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>05/06/2002</t>
@@ -2836,7 +2899,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1926</t>
+          <t>1926</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2888,7 +2951,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1927</t>
+          <t>1927</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2940,7 +3003,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1928</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2992,7 +3055,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1930</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3044,7 +3107,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1932</t>
+          <t>1932</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3096,7 +3159,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1961</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3148,7 +3211,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1965</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3200,7 +3263,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1979</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3252,7 +3315,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1980</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3304,7 +3367,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1981</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3356,7 +3419,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1982</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3408,7 +3471,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1983</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3460,7 +3523,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1984</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3512,7 +3575,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1986</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3564,7 +3627,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1990</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3616,7 +3679,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1995</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3668,7 +3731,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1996</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3720,7 +3783,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2028</t>
+          <t>2028</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3772,7 +3835,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2035</t>
+          <t>2035</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3824,7 +3887,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2043</t>
+          <t>2043</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3876,7 +3939,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2051</t>
+          <t>2051</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3928,7 +3991,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2060</t>
+          <t>2060</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3980,7 +4043,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2068</t>
+          <t>2068</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4032,7 +4095,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2100</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4084,7 +4147,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2102</t>
+          <t>2102</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4136,7 +4199,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2105</t>
+          <t>2105</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4188,7 +4251,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2107</t>
+          <t>2107</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4240,7 +4303,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2108</t>
+          <t>2108</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4292,7 +4355,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2109</t>
+          <t>2109</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4344,7 +4407,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2110</t>
+          <t>2110</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4396,7 +4459,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2111</t>
+          <t>2111</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4448,7 +4511,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2112</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4500,7 +4563,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2113</t>
+          <t>2113</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4552,7 +4615,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2154</t>
+          <t>2154</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4604,7 +4667,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2156</t>
+          <t>2156</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4656,7 +4719,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2157</t>
+          <t>2157</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4708,7 +4771,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2158</t>
+          <t>2158</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4760,7 +4823,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2160</t>
+          <t>2160</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4812,7 +4875,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2178</t>
+          <t>2178</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4864,7 +4927,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2180</t>
+          <t>2180</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4916,7 +4979,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2182</t>
+          <t>2182</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4968,7 +5031,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2184</t>
+          <t>2184</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5020,7 +5083,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2186</t>
+          <t>2186</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5072,7 +5135,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2210</t>
+          <t>2210</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5124,7 +5187,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2213</t>
+          <t>2213</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5176,7 +5239,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2219</t>
+          <t>2219</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5228,7 +5291,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2220</t>
+          <t>2220</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5280,7 +5343,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2221</t>
+          <t>2221</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5332,7 +5395,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2222</t>
+          <t>2222</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5384,7 +5447,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2223</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5436,7 +5499,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2229</t>
+          <t>2229</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5488,7 +5551,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2230</t>
+          <t>2230</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5540,7 +5603,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2232</t>
+          <t>2232</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5592,7 +5655,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2233</t>
+          <t>2233</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5644,7 +5707,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2235</t>
+          <t>2235</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5684,7 +5747,6 @@
           <t>101</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
           <t>08/07/2004</t>
@@ -5692,7 +5754,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2236</t>
+          <t>2236</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5744,7 +5806,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2237</t>
+          <t>2237</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5796,7 +5858,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2271</t>
+          <t>2271</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5848,7 +5910,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2274</t>
+          <t>2274</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5900,7 +5962,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2277</t>
+          <t>2277</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5952,7 +6014,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2278</t>
+          <t>2278</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -6004,7 +6066,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2301</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6056,7 +6118,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2302</t>
+          <t>2302</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6108,7 +6170,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2304</t>
+          <t>2304</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6160,7 +6222,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2306</t>
+          <t>2306</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6212,7 +6274,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2310</t>
+          <t>2310</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6264,7 +6326,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2311</t>
+          <t>2311</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6316,7 +6378,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2316</t>
+          <t>2316</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6368,7 +6430,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2339</t>
+          <t>2339</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6420,7 +6482,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2340</t>
+          <t>2340</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6472,7 +6534,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2341</t>
+          <t>2341</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6524,7 +6586,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2342</t>
+          <t>2342</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6576,7 +6638,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2343</t>
+          <t>2343</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6628,7 +6690,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2344</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6680,7 +6742,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2345</t>
+          <t>2345</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6732,7 +6794,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2346</t>
+          <t>2346</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6784,7 +6846,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2381</t>
+          <t>2381</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6836,7 +6898,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2382</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6888,7 +6950,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2431</t>
+          <t>2431</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6940,7 +7002,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2434</t>
+          <t>2434</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6992,7 +7054,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2436</t>
+          <t>2436</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7044,7 +7106,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2441</t>
+          <t>2441</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7096,7 +7158,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2445</t>
+          <t>2445</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7148,7 +7210,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2469</t>
+          <t>2469</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7200,7 +7262,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2470</t>
+          <t>2470</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7252,7 +7314,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2473</t>
+          <t>2473</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7304,7 +7366,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2474</t>
+          <t>2474</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7356,7 +7418,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2475</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7408,7 +7470,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2476</t>
+          <t>2476</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7460,7 +7522,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2477</t>
+          <t>2477</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7512,7 +7574,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2478</t>
+          <t>2478</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7564,7 +7626,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2483</t>
+          <t>2483</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7616,7 +7678,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2484</t>
+          <t>2484</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7668,7 +7730,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2516</t>
+          <t>2516</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7720,7 +7782,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2517</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7772,7 +7834,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2521</t>
+          <t>2521</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7824,7 +7886,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2523</t>
+          <t>2523</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7876,7 +7938,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2526</t>
+          <t>2526</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7928,7 +7990,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2528</t>
+          <t>2528</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7980,7 +8042,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2530</t>
+          <t>2530</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -8032,7 +8094,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2532</t>
+          <t>2532</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8084,7 +8146,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2536</t>
+          <t>2536</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8136,7 +8198,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2541</t>
+          <t>2541</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8188,7 +8250,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2543</t>
+          <t>2543</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8240,7 +8302,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2546</t>
+          <t>2546</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8292,7 +8354,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2547</t>
+          <t>2547</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8344,7 +8406,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2566</t>
+          <t>2566</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8396,7 +8458,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2569</t>
+          <t>2569</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8448,7 +8510,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2570</t>
+          <t>2570</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8500,7 +8562,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2572</t>
+          <t>2572</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8552,7 +8614,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2587</t>
+          <t>2587</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8604,7 +8666,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2592</t>
+          <t>2592</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8656,7 +8718,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2594</t>
+          <t>2594</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8708,7 +8770,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2600</t>
+          <t>2600</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8760,7 +8822,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2638</t>
+          <t>2638</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8812,7 +8874,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2650</t>
+          <t>2650</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8864,7 +8926,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2658</t>
+          <t>2658</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8916,7 +8978,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2662</t>
+          <t>2662</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8968,7 +9030,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2664</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -9020,7 +9082,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2667</t>
+          <t>2667</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -9072,7 +9134,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2674</t>
+          <t>2674</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -9124,7 +9186,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2683</t>
+          <t>2683</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -9176,7 +9238,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2685</t>
+          <t>2685</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -9228,7 +9290,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2702</t>
+          <t>2702</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -9280,7 +9342,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2707</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -9332,7 +9394,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2709</t>
+          <t>2709</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -9384,7 +9446,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2710</t>
+          <t>2710</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -9436,7 +9498,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2712</t>
+          <t>2712</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -9476,7 +9538,6 @@
           <t>174</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr">
         <is>
           <t>14/07/2007</t>
@@ -9484,7 +9545,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2714</t>
+          <t>2714</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -9536,7 +9597,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2760</t>
+          <t>2760</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -9588,7 +9649,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2762</t>
+          <t>2762</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -9640,7 +9701,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2809</t>
+          <t>2809</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -9692,7 +9753,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2811</t>
+          <t>2811</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -9732,7 +9793,6 @@
           <t>179</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr">
         <is>
           <t>15/04/2008</t>
@@ -9740,7 +9800,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2813</t>
+          <t>2813</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -9792,7 +9852,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2825</t>
+          <t>2825</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -9844,7 +9904,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2831</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -9896,7 +9956,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2836</t>
+          <t>2836</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -9948,7 +10008,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2846</t>
+          <t>2846</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -10000,7 +10060,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2848</t>
+          <t>2848</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -10052,7 +10112,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2864</t>
+          <t>2864</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -10104,7 +10164,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2867</t>
+          <t>2867</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -10156,7 +10216,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2894</t>
+          <t>2894</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -10208,7 +10268,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2897</t>
+          <t>2897</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -10260,7 +10320,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2898</t>
+          <t>2898</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -10312,7 +10372,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2908</t>
+          <t>2908</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -10364,7 +10424,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2909</t>
+          <t>2909</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -10416,7 +10476,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2910</t>
+          <t>2910</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -10468,7 +10528,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2911</t>
+          <t>2911</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -10520,7 +10580,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2914</t>
+          <t>2914</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -10572,7 +10632,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2948</t>
+          <t>2948</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -10624,7 +10684,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2949</t>
+          <t>2949</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -10676,7 +10736,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2950</t>
+          <t>2950</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -10728,7 +10788,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2951</t>
+          <t>2951</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -10780,7 +10840,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2955</t>
+          <t>2955</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -10832,7 +10892,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2973</t>
+          <t>2973</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -10884,7 +10944,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2974</t>
+          <t>2974</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -10936,7 +10996,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2975</t>
+          <t>2975</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -10988,7 +11048,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2976</t>
+          <t>2976</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -11040,7 +11100,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2977</t>
+          <t>2977</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -11092,7 +11152,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2978</t>
+          <t>2978</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -11144,7 +11204,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3080</t>
+          <t>3080</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -11196,7 +11256,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3082</t>
+          <t>3082</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -11248,7 +11308,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3084</t>
+          <t>3084</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -11300,7 +11360,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3085</t>
+          <t>3085</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -11352,7 +11412,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3090</t>
+          <t>3090</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -11404,7 +11464,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3097</t>
+          <t>3097</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -11456,7 +11516,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3100</t>
+          <t>3100</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -11508,7 +11568,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3102</t>
+          <t>3102</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -11560,7 +11620,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3104</t>
+          <t>3104</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -11612,7 +11672,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3106</t>
+          <t>3106</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -11664,7 +11724,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3109</t>
+          <t>3109</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -11716,7 +11776,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3110</t>
+          <t>3110</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -11768,7 +11828,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3112</t>
+          <t>3112</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -11820,7 +11880,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3114</t>
+          <t>3114</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -11872,7 +11932,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3117</t>
+          <t>3117</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -11924,7 +11984,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3227</t>
+          <t>3227</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -11976,7 +12036,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3231</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -12028,7 +12088,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3234</t>
+          <t>3234</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -12080,7 +12140,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3241</t>
+          <t>3241</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -12132,7 +12192,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3247</t>
+          <t>3247</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -12184,7 +12244,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3253</t>
+          <t>3253</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -12236,7 +12296,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3270</t>
+          <t>3270</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -12288,7 +12348,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3277</t>
+          <t>3277</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -12340,7 +12400,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3414</t>
+          <t>3414</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -12392,7 +12452,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3422</t>
+          <t>3422</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -12444,7 +12504,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3424</t>
+          <t>3424</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -12496,7 +12556,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3427</t>
+          <t>3427</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -12548,7 +12608,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3429</t>
+          <t>3429</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -12600,7 +12660,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3430</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -12652,7 +12712,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3450</t>
+          <t>3450</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -12704,7 +12764,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3451</t>
+          <t>3451</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -12756,7 +12816,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3452</t>
+          <t>3452</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -12808,7 +12868,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3453</t>
+          <t>3453</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -12860,7 +12920,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3454</t>
+          <t>3454</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -12912,7 +12972,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3471</t>
+          <t>3471</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -12964,7 +13024,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3472</t>
+          <t>3472</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -13016,7 +13076,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3473</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -13068,7 +13128,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3506</t>
+          <t>3506</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -13120,7 +13180,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3510</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -13172,7 +13232,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3513</t>
+          <t>3513</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -13224,7 +13284,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3520</t>
+          <t>3520</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -13276,7 +13336,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3521</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -13328,7 +13388,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3525</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -13380,7 +13440,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3527</t>
+          <t>3527</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -13432,7 +13492,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3531</t>
+          <t>3531</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -13484,7 +13544,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3532</t>
+          <t>3532</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -13536,7 +13596,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3533</t>
+          <t>3533</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -13588,7 +13648,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3535</t>
+          <t>3535</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -13640,7 +13700,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3538</t>
+          <t>3538</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -13692,7 +13752,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3580</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -13744,7 +13804,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3655</t>
+          <t>3655</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -13796,7 +13856,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3657</t>
+          <t>3657</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -13848,7 +13908,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3661</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -13900,7 +13960,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3728</t>
+          <t>3728</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -13952,7 +14012,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3732</t>
+          <t>3732</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -14004,7 +14064,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3736</t>
+          <t>3736</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -14056,7 +14116,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3740</t>
+          <t>3740</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -14108,7 +14168,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3742</t>
+          <t>3742</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -14160,7 +14220,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3752</t>
+          <t>3752</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -14212,7 +14272,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3757</t>
+          <t>3757</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -14264,7 +14324,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3762</t>
+          <t>3762</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -14316,7 +14376,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3766</t>
+          <t>3766</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -14368,7 +14428,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3775</t>
+          <t>3775</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -14420,7 +14480,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3793</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -14472,7 +14532,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4068</t>
+          <t>4068</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -14524,7 +14584,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4072</t>
+          <t>4072</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -14576,7 +14636,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4073</t>
+          <t>4073</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -14628,7 +14688,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4075</t>
+          <t>4075</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -14680,7 +14740,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4100</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -14732,7 +14792,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4102</t>
+          <t>4102</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -14784,7 +14844,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4144</t>
+          <t>4144</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -14836,7 +14896,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4150</t>
+          <t>4150</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -14888,7 +14948,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4154</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -14940,7 +15000,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4159</t>
+          <t>4159</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -14992,7 +15052,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4161</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -15044,7 +15104,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4164</t>
+          <t>4164</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -15096,7 +15156,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4179</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -15148,7 +15208,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4180</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -15200,7 +15260,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4181</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -15252,7 +15312,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4253</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -15304,7 +15364,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4254</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -15344,7 +15404,6 @@
           <t>287</t>
         </is>
       </c>
-      <c r="B288" t="inlineStr"/>
       <c r="C288" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -15352,7 +15411,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4255</t>
+          <t>4255</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -15404,7 +15463,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4256</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -15456,7 +15515,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4260</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -15508,7 +15567,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4304</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -15560,7 +15619,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4312</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -15600,7 +15659,6 @@
           <t>292</t>
         </is>
       </c>
-      <c r="B293" t="inlineStr"/>
       <c r="C293" t="inlineStr">
         <is>
           <t>10/06/2019</t>
@@ -15608,7 +15666,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4317</t>
+          <t>4317</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -15660,7 +15718,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -15712,7 +15770,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -15764,7 +15822,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4333</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -15816,7 +15874,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4338</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -15868,7 +15926,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4344</t>
+          <t>4344</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -15920,7 +15978,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4348</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -15972,7 +16030,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4359</t>
+          <t>4359</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -16024,7 +16082,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4360</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -16076,7 +16134,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4362</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -16115,7 +16173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16137,7 +16195,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -16174,7 +16232,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1583</t>
+          <t>1583</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -16211,7 +16269,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1584</t>
+          <t>1584</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -16248,7 +16306,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1587</t>
+          <t>1587</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -16285,7 +16343,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1588</t>
+          <t>1588</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -16322,7 +16380,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1602</t>
+          <t>1602</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -16359,7 +16417,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1604</t>
+          <t>1604</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -16396,7 +16454,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1675</t>
+          <t>1675</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -16433,7 +16491,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1678</t>
+          <t>1678</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -16470,7 +16528,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1680</t>
+          <t>1680</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -16507,7 +16565,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1681</t>
+          <t>1681</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -16544,7 +16602,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1682</t>
+          <t>1682</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -16581,7 +16639,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1683</t>
+          <t>1683</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -16618,7 +16676,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1700</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -16655,7 +16713,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1702</t>
+          <t>1702</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -16692,7 +16750,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1703</t>
+          <t>1703</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -16729,7 +16787,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1705</t>
+          <t>1705</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -16766,7 +16824,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1706</t>
+          <t>1706</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -16803,7 +16861,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1708</t>
+          <t>1708</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -16840,7 +16898,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1596</t>
+          <t>1596</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -16877,7 +16935,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1582</t>
+          <t>1582</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -16914,7 +16972,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1581</t>
+          <t>1581</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -16951,7 +17009,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1580</t>
+          <t>1580</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -16988,7 +17046,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1818</t>
+          <t>1818</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -17025,7 +17083,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1819</t>
+          <t>1819</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -17062,7 +17120,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1830</t>
+          <t>1830</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -17099,7 +17157,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1831</t>
+          <t>1831</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -17136,7 +17194,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1832</t>
+          <t>1832</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -17173,7 +17231,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1863</t>
+          <t>1863</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -17210,7 +17268,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1865</t>
+          <t>1865</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -17247,7 +17305,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1866</t>
+          <t>1866</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -17284,7 +17342,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1867</t>
+          <t>1867</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -17321,7 +17379,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1893</t>
+          <t>1893</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -17358,7 +17416,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1895</t>
+          <t>1895</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -17395,7 +17453,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1923</t>
+          <t>1923</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -17432,7 +17490,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1925</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -17469,7 +17527,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1926</t>
+          <t>1926</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -17506,7 +17564,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1927</t>
+          <t>1927</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -17543,7 +17601,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1928</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -17580,7 +17638,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1930</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -17617,7 +17675,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1932</t>
+          <t>1932</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -17654,7 +17712,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1961</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -17691,7 +17749,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1965</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -17728,7 +17786,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1979</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -17765,7 +17823,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1980</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -17802,7 +17860,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1981</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -17839,7 +17897,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1982</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -17876,7 +17934,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1983</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -17913,7 +17971,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1984</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -17950,7 +18008,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1986</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -17987,7 +18045,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1990</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -18024,7 +18082,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1995</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -18061,7 +18119,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=1996</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -18098,7 +18156,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2028</t>
+          <t>2028</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -18135,7 +18193,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2035</t>
+          <t>2035</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -18172,7 +18230,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2051</t>
+          <t>2051</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -18209,7 +18267,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2060</t>
+          <t>2060</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -18246,7 +18304,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2100</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -18283,7 +18341,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2102</t>
+          <t>2102</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -18320,7 +18378,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2105</t>
+          <t>2105</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -18357,7 +18415,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2107</t>
+          <t>2107</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -18394,7 +18452,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2108</t>
+          <t>2108</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -18431,7 +18489,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2109</t>
+          <t>2109</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -18468,7 +18526,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2110</t>
+          <t>2110</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -18505,7 +18563,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2111</t>
+          <t>2111</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -18542,7 +18600,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2112</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -18579,7 +18637,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2113</t>
+          <t>2113</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -18616,7 +18674,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2154</t>
+          <t>2154</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -18653,7 +18711,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2156</t>
+          <t>2156</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -18690,7 +18748,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2157</t>
+          <t>2157</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -18727,7 +18785,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2158</t>
+          <t>2158</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -18764,7 +18822,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2160</t>
+          <t>2160</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -18801,7 +18859,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2178</t>
+          <t>2178</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -18838,7 +18896,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2180</t>
+          <t>2180</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -18875,7 +18933,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2184</t>
+          <t>2184</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -18912,7 +18970,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2186</t>
+          <t>2186</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -18949,7 +19007,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2210</t>
+          <t>2210</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -18986,7 +19044,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2219</t>
+          <t>2219</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -19023,7 +19081,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2220</t>
+          <t>2220</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -19060,7 +19118,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2221</t>
+          <t>2221</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -19097,7 +19155,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2222</t>
+          <t>2222</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -19134,7 +19192,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2223</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -19171,7 +19229,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2229</t>
+          <t>2229</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -19208,7 +19266,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2233</t>
+          <t>2233</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -19245,7 +19303,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2235</t>
+          <t>2235</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -19282,7 +19340,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2237</t>
+          <t>2237</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -19319,7 +19377,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2271</t>
+          <t>2271</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -19356,7 +19414,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2274</t>
+          <t>2274</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -19393,7 +19451,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2277</t>
+          <t>2277</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -19430,7 +19488,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2278</t>
+          <t>2278</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -19467,7 +19525,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2301</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -19504,7 +19562,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2302</t>
+          <t>2302</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -19541,7 +19599,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2311</t>
+          <t>2311</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -19578,7 +19636,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2316</t>
+          <t>2316</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -19615,7 +19673,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2339</t>
+          <t>2339</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -19652,7 +19710,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2341</t>
+          <t>2341</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -19689,7 +19747,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2342</t>
+          <t>2342</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -19726,7 +19784,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2343</t>
+          <t>2343</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -19763,7 +19821,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2344</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -19800,7 +19858,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2345</t>
+          <t>2345</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -19837,7 +19895,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2346</t>
+          <t>2346</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -19874,7 +19932,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2382</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -19911,7 +19969,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2431</t>
+          <t>2431</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -19948,7 +20006,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2434</t>
+          <t>2434</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -19985,7 +20043,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2436</t>
+          <t>2436</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -20022,7 +20080,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2441</t>
+          <t>2441</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -20059,7 +20117,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2445</t>
+          <t>2445</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -20096,7 +20154,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2469</t>
+          <t>2469</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -20133,7 +20191,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2470</t>
+          <t>2470</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -20170,7 +20228,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2473</t>
+          <t>2473</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -20207,7 +20265,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2474</t>
+          <t>2474</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -20244,7 +20302,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2475</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -20281,7 +20339,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2476</t>
+          <t>2476</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -20318,7 +20376,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2477</t>
+          <t>2477</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -20355,7 +20413,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2478</t>
+          <t>2478</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -20392,7 +20450,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2483</t>
+          <t>2483</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -20429,7 +20487,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2484</t>
+          <t>2484</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -20466,7 +20524,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2516</t>
+          <t>2516</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -20503,7 +20561,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2517</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -20540,7 +20598,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2521</t>
+          <t>2521</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -20577,7 +20635,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2523</t>
+          <t>2523</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -20614,7 +20672,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2526</t>
+          <t>2526</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -20651,7 +20709,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2528</t>
+          <t>2528</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -20688,7 +20746,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2530</t>
+          <t>2530</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -20725,7 +20783,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2536</t>
+          <t>2536</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -20762,7 +20820,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2541</t>
+          <t>2541</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -20799,7 +20857,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2543</t>
+          <t>2543</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -20836,7 +20894,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2546</t>
+          <t>2546</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -20873,7 +20931,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2547</t>
+          <t>2547</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -20910,7 +20968,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2566</t>
+          <t>2566</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -20947,7 +21005,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2569</t>
+          <t>2569</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -20984,7 +21042,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2572</t>
+          <t>2572</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -21021,7 +21079,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2587</t>
+          <t>2587</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -21058,7 +21116,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2592</t>
+          <t>2592</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -21095,7 +21153,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2594</t>
+          <t>2594</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -21132,7 +21190,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2600</t>
+          <t>2600</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -21169,7 +21227,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2650</t>
+          <t>2650</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -21206,7 +21264,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2658</t>
+          <t>2658</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -21243,7 +21301,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2662</t>
+          <t>2662</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -21280,7 +21338,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2664</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -21317,7 +21375,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2667</t>
+          <t>2667</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -21354,7 +21412,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2674</t>
+          <t>2674</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -21391,7 +21449,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2683</t>
+          <t>2683</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -21428,7 +21486,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2685</t>
+          <t>2685</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -21465,7 +21523,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2709</t>
+          <t>2709</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -21502,7 +21560,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2712</t>
+          <t>2712</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -21539,7 +21597,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2760</t>
+          <t>2760</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -21576,7 +21634,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2809</t>
+          <t>2809</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -21613,7 +21671,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2811</t>
+          <t>2811</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -21650,7 +21708,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2813</t>
+          <t>2813</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -21687,7 +21745,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2825</t>
+          <t>2825</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -21724,7 +21782,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2831</t>
+          <t>2831</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -21761,7 +21819,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2836</t>
+          <t>2836</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -21798,7 +21856,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2846</t>
+          <t>2846</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -21835,7 +21893,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2848</t>
+          <t>2848</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -21872,7 +21930,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2864</t>
+          <t>2864</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -21909,7 +21967,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2894</t>
+          <t>2894</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -21946,7 +22004,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2897</t>
+          <t>2897</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -21983,7 +22041,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2898</t>
+          <t>2898</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -22020,7 +22078,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2909</t>
+          <t>2909</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -22057,7 +22115,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2910</t>
+          <t>2910</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -22094,7 +22152,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2911</t>
+          <t>2911</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -22131,7 +22189,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2948</t>
+          <t>2948</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -22168,7 +22226,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2949</t>
+          <t>2949</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -22205,7 +22263,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2955</t>
+          <t>2955</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -22242,7 +22300,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2974</t>
+          <t>2974</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -22279,7 +22337,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2975</t>
+          <t>2975</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -22316,7 +22374,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2976</t>
+          <t>2976</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -22353,7 +22411,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2977</t>
+          <t>2977</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -22390,7 +22448,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3080</t>
+          <t>3080</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -22427,7 +22485,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3084</t>
+          <t>3084</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -22464,7 +22522,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3085</t>
+          <t>3085</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -22501,7 +22559,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3090</t>
+          <t>3090</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -22538,7 +22596,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3100</t>
+          <t>3100</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -22575,7 +22633,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3109</t>
+          <t>3109</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -22612,7 +22670,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3110</t>
+          <t>3110</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -22649,7 +22707,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3114</t>
+          <t>3114</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -22686,7 +22744,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3117</t>
+          <t>3117</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -22723,7 +22781,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3231</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -22760,7 +22818,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3234</t>
+          <t>3234</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -22797,7 +22855,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3241</t>
+          <t>3241</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -22834,7 +22892,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3452</t>
+          <t>3452</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -22871,7 +22929,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3473</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -22908,7 +22966,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3510</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -22945,7 +23003,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3655</t>
+          <t>3655</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -22982,7 +23040,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3661</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -23019,7 +23077,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3736</t>
+          <t>3736</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -23056,7 +23114,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3740</t>
+          <t>3740</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -23093,7 +23151,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3752</t>
+          <t>3752</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -23130,7 +23188,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3762</t>
+          <t>3762</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -23167,7 +23225,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3766</t>
+          <t>3766</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -23204,7 +23262,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4159</t>
+          <t>4159</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -23241,7 +23299,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4164</t>
+          <t>4164</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -23278,7 +23336,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4180</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -23315,7 +23373,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4181</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -23352,7 +23410,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4254</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -23389,7 +23447,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -23426,7 +23484,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -23463,7 +23521,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4333</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -23500,7 +23558,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4348</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -23526,6 +23584,545 @@
       <c r="G200" t="inlineStr">
         <is>
           <t>1/28</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4179</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4180</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10.70%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4181</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.80%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4253</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4254</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>17.30%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4255</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4256</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>41.65%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4260</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>66.96%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4304</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>46.30%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4312</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7.69%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4317</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4321</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>16.98%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4325</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4333</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4338</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4.20%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4344</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>11.11%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2.25%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4360</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>5.24%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_2217.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_2217.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23644,10 +23645,6 @@
           <t>4179</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -23720,10 +23717,6 @@
           <t>4253</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -23766,363 +23759,647 @@
           <t>4255</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4256</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>41.65%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4260</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>66.96%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4304</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>46.30%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4312</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7.69%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4317</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4321</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>16.98%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4325</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4333</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4338</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4.20%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4344</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>11.11%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2.25%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4360</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>5.24%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3241</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3452</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3473</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3510</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3655</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3661</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4256</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>41.65%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>3736</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4260</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>66.96%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>3740</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4304</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
+          <t>3752</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>46.30%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4312</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
+          <t>3762</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>7.69%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4317</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>3766</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4321</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>16.98%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4159</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4325</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4164</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4333</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>4180</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4338</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+          <t>4181</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.20%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4344</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>11.11%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4254</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+          <t>4321</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.25%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4359</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4360</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>5.24%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4333</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4362</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_2217.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_2217.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1338,6 +1336,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>09/07/2000</t>
@@ -1350,7 +1349,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2893,6 +2892,7 @@
           <t>46</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>05/06/2002</t>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5748,6 +5748,7 @@
           <t>101</t>
         </is>
       </c>
+      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
           <t>08/07/2004</t>
@@ -9539,6 +9540,7 @@
           <t>174</t>
         </is>
       </c>
+      <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr">
         <is>
           <t>14/07/2007</t>
@@ -9551,7 +9553,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9794,6 +9796,7 @@
           <t>179</t>
         </is>
       </c>
+      <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr">
         <is>
           <t>15/04/2008</t>
@@ -15405,6 +15408,7 @@
           <t>287</t>
         </is>
       </c>
+      <c r="B288" t="inlineStr"/>
       <c r="C288" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -15660,6 +15664,7 @@
           <t>292</t>
         </is>
       </c>
+      <c r="B293" t="inlineStr"/>
       <c r="C293" t="inlineStr">
         <is>
           <t>10/06/2019</t>
@@ -15672,7 +15677,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -23591,819 +23596,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4179</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4180</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10.70%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4181</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>25.80%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4253</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4254</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>17.30%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4255</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4256</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>41.65%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4260</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>66.96%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4304</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>46.30%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4312</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>7.69%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4317</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4321</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>16.98%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4325</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4333</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4338</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.20%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4344</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>11.11%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.25%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4359</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4360</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>5.24%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4362</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3241</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3452</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3473</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3510</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3655</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3661</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3736</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3740</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3752</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3762</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3766</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4159</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4164</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4180</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4181</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4254</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4321</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4325</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4333</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>